--- a/documents/前端传后端.xlsx
+++ b/documents/前端传后端.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\比赛\服务外包\project\hotel-management-system\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0999870-AF9F-40F9-9844-53C6DC7B0BFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C556CFB-C33C-4D96-96D0-0DB62EEE1F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t>html页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>scan.html加载0.1s后调用函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ShowScanInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -172,6 +168,22 @@
   </si>
   <si>
     <t>点击button选择一个房间位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan.html拍完照后调用函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>face图片</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -513,14 +525,14 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.75" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
@@ -531,7 +543,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -546,7 +558,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -564,16 +576,16 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -584,25 +596,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -617,16 +629,16 @@
         <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>7</v>
@@ -638,25 +650,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -664,25 +676,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -690,25 +702,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/documents/前端传后端.xlsx
+++ b/documents/前端传后端.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\比赛\服务外包\project\hotel-management-system\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C556CFB-C33C-4D96-96D0-0DB62EEE1F6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE0A60-3BB1-4249-AAF0-7C90668C1E19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>html页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,14 +119,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{ % url 函数 % }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{ % url 函数 值% }</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>welcome.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -147,10 +139,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ConfirmID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>personInfo.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,6 +172,30 @@
   </si>
   <si>
     <t>face图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{% url 'CheckIn:AgreePrivacy' 值%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{% url 'CheckIn:SelectRoomType' 值%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{% url 'CheckIn:SelectLocation' 值%}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"SplitFlow/"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"scan/"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SplitFlow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -525,201 +537,184 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="I1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
     </row>

--- a/documents/前端传后端.xlsx
+++ b/documents/前端传后端.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\files\比赛\服务外包\project\hotel-management-system\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DE0A60-3BB1-4249-AAF0-7C90668C1E19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880079D9-B834-4E2A-8D81-60A4FB953625}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>html页面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ShowScanInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,18 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>welcome.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击button</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShowScaning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求形式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -139,14 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>personInfo.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击button确认信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击button同意或不同意</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -184,18 +160,6 @@
   </si>
   <si>
     <t>{% url 'CheckIn:SelectLocation' 值%}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"SplitFlow/"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"scan/"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SplitFlow</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -556,7 +520,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
@@ -571,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -580,142 +544,95 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>7</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
